--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H2">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I2">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J2">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.19524</v>
+        <v>14.861848</v>
       </c>
       <c r="N2">
-        <v>33.58572</v>
+        <v>44.585544</v>
       </c>
       <c r="O2">
-        <v>0.07847249539938134</v>
+        <v>0.09055189482833943</v>
       </c>
       <c r="P2">
-        <v>0.07847249539938135</v>
+        <v>0.09055189482833945</v>
       </c>
       <c r="Q2">
-        <v>22.25211056534667</v>
+        <v>33.72303911259733</v>
       </c>
       <c r="R2">
-        <v>200.26899508812</v>
+        <v>303.507352013376</v>
       </c>
       <c r="S2">
-        <v>0.002182907226994409</v>
+        <v>0.002618047245622547</v>
       </c>
       <c r="T2">
-        <v>0.002182907226994409</v>
+        <v>0.002618047245622547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H3">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I3">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J3">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>93.234415</v>
       </c>
       <c r="O3">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="P3">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="Q3">
-        <v>61.77216123624611</v>
+        <v>70.51944512968444</v>
       </c>
       <c r="R3">
-        <v>555.949451126215</v>
+        <v>634.6750061671601</v>
       </c>
       <c r="S3">
-        <v>0.006059780118100665</v>
+        <v>0.005474691603807266</v>
       </c>
       <c r="T3">
-        <v>0.006059780118100665</v>
+        <v>0.005474691603807267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H4">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I4">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J4">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.822188333333335</v>
+        <v>18.10188466666667</v>
       </c>
       <c r="N4">
-        <v>26.466565</v>
+        <v>54.305654</v>
       </c>
       <c r="O4">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="P4">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="Q4">
-        <v>17.53533735959611</v>
+        <v>41.07501063297956</v>
       </c>
       <c r="R4">
-        <v>157.818036236365</v>
+        <v>369.675095696816</v>
       </c>
       <c r="S4">
-        <v>0.001720197036485068</v>
+        <v>0.003188808638881495</v>
       </c>
       <c r="T4">
-        <v>0.001720197036485068</v>
+        <v>0.003188808638881496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H5">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I5">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J5">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>91.56894200000001</v>
+        <v>100.0833306666667</v>
       </c>
       <c r="N5">
-        <v>274.706826</v>
+        <v>300.249992</v>
       </c>
       <c r="O5">
-        <v>0.6418480872068144</v>
+        <v>0.609798675951868</v>
       </c>
       <c r="P5">
-        <v>0.6418480872068145</v>
+        <v>0.6097986759518681</v>
       </c>
       <c r="Q5">
-        <v>182.0061223998607</v>
+        <v>227.0992190601742</v>
       </c>
       <c r="R5">
-        <v>1638.055101598746</v>
+        <v>2043.892971541568</v>
       </c>
       <c r="S5">
-        <v>0.01785459760219806</v>
+        <v>0.01763057246882065</v>
       </c>
       <c r="T5">
-        <v>0.01785459760219806</v>
+        <v>0.01763057246882065</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>170.440021</v>
       </c>
       <c r="I6">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J6">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.19524</v>
+        <v>14.861848</v>
       </c>
       <c r="N6">
-        <v>33.58572</v>
+        <v>44.585544</v>
       </c>
       <c r="O6">
-        <v>0.07847249539938134</v>
+        <v>0.09055189482833943</v>
       </c>
       <c r="P6">
-        <v>0.07847249539938135</v>
+        <v>0.09055189482833945</v>
       </c>
       <c r="Q6">
-        <v>636.0389802333467</v>
+        <v>844.3512284062693</v>
       </c>
       <c r="R6">
-        <v>5724.35082210012</v>
+        <v>7599.161055656424</v>
       </c>
       <c r="S6">
-        <v>0.06239471453839131</v>
+        <v>0.06555018367372736</v>
       </c>
       <c r="T6">
-        <v>0.0623947145383913</v>
+        <v>0.06555018367372738</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>170.440021</v>
       </c>
       <c r="I7">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J7">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>93.234415</v>
       </c>
       <c r="O7">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="P7">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="Q7">
         <v>1765.652850058079</v>
@@ -883,10 +883,10 @@
         <v>15890.87565052272</v>
       </c>
       <c r="S7">
-        <v>0.1732085752241997</v>
+        <v>0.1370743178094344</v>
       </c>
       <c r="T7">
-        <v>0.1732085752241997</v>
+        <v>0.1370743178094344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>170.440021</v>
       </c>
       <c r="I8">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J8">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.822188333333335</v>
+        <v>18.10188466666667</v>
       </c>
       <c r="N8">
-        <v>26.466565</v>
+        <v>54.305654</v>
       </c>
       <c r="O8">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="P8">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="Q8">
-        <v>501.2179882664295</v>
+        <v>1028.428534242082</v>
       </c>
       <c r="R8">
-        <v>4510.961894397866</v>
+        <v>9255.856808178734</v>
       </c>
       <c r="S8">
-        <v>0.04916892560251138</v>
+        <v>0.07984080208199068</v>
       </c>
       <c r="T8">
-        <v>0.04916892560251137</v>
+        <v>0.07984080208199071</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>170.440021</v>
       </c>
       <c r="I9">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J9">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.56894200000001</v>
+        <v>100.0833306666667</v>
       </c>
       <c r="N9">
-        <v>274.706826</v>
+        <v>300.249992</v>
       </c>
       <c r="O9">
-        <v>0.6418480872068144</v>
+        <v>0.609798675951868</v>
       </c>
       <c r="P9">
-        <v>0.6418480872068145</v>
+        <v>0.6097986759518681</v>
       </c>
       <c r="Q9">
-        <v>5202.337465809262</v>
+        <v>5686.06832685887</v>
       </c>
       <c r="R9">
-        <v>46821.03719228335</v>
+        <v>51174.61494172983</v>
       </c>
       <c r="S9">
-        <v>0.5103435028344645</v>
+        <v>0.4414310190683144</v>
       </c>
       <c r="T9">
-        <v>0.5103435028344645</v>
+        <v>0.4414310190683144</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H10">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I10">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J10">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.19524</v>
+        <v>14.861848</v>
       </c>
       <c r="N10">
-        <v>33.58572</v>
+        <v>44.585544</v>
       </c>
       <c r="O10">
-        <v>0.07847249539938134</v>
+        <v>0.09055189482833943</v>
       </c>
       <c r="P10">
-        <v>0.07847249539938135</v>
+        <v>0.09055189482833945</v>
       </c>
       <c r="Q10">
-        <v>133.2437350685467</v>
+        <v>276.0227370791067</v>
       </c>
       <c r="R10">
-        <v>1199.19361561692</v>
+        <v>2484.20463371196</v>
       </c>
       <c r="S10">
-        <v>0.01307106179338398</v>
+        <v>0.0214286904607363</v>
       </c>
       <c r="T10">
-        <v>0.01307106179338398</v>
+        <v>0.0214286904607363</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H11">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I11">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J11">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>93.234415</v>
       </c>
       <c r="O11">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="P11">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="Q11">
-        <v>369.8864187378127</v>
+        <v>577.2009514624139</v>
       </c>
       <c r="R11">
-        <v>3328.977768640315</v>
+        <v>5194.808563161725</v>
       </c>
       <c r="S11">
-        <v>0.03628544511581131</v>
+        <v>0.04481029589597087</v>
       </c>
       <c r="T11">
-        <v>0.03628544511581131</v>
+        <v>0.04481029589597089</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H12">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I12">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J12">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.822188333333335</v>
+        <v>18.10188466666667</v>
       </c>
       <c r="N12">
-        <v>26.466565</v>
+        <v>54.305654</v>
       </c>
       <c r="O12">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="P12">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="Q12">
-        <v>105.0001004901628</v>
+        <v>336.1985502734011</v>
       </c>
       <c r="R12">
-        <v>945.0009044114651</v>
+        <v>3025.78695246061</v>
       </c>
       <c r="S12">
-        <v>0.01030039274351164</v>
+        <v>0.02610036674294803</v>
       </c>
       <c r="T12">
-        <v>0.01030039274351164</v>
+        <v>0.02610036674294803</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H13">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I13">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J13">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.56894200000001</v>
+        <v>100.0833306666667</v>
       </c>
       <c r="N13">
-        <v>274.706826</v>
+        <v>300.249992</v>
       </c>
       <c r="O13">
-        <v>0.6418480872068144</v>
+        <v>0.609798675951868</v>
       </c>
       <c r="P13">
-        <v>0.6418480872068145</v>
+        <v>0.6097986759518681</v>
       </c>
       <c r="Q13">
-        <v>1089.837095797421</v>
+        <v>1858.804831445364</v>
       </c>
       <c r="R13">
-        <v>9808.533862176788</v>
+        <v>16729.24348300828</v>
       </c>
       <c r="S13">
-        <v>0.1069118035197811</v>
+        <v>0.1443060589191544</v>
       </c>
       <c r="T13">
-        <v>0.1069118035197811</v>
+        <v>0.1443060589191544</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H14">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I14">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J14">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.19524</v>
+        <v>14.861848</v>
       </c>
       <c r="N14">
-        <v>33.58572</v>
+        <v>44.585544</v>
       </c>
       <c r="O14">
-        <v>0.07847249539938134</v>
+        <v>0.09055189482833943</v>
       </c>
       <c r="P14">
-        <v>0.07847249539938135</v>
+        <v>0.09055189482833945</v>
       </c>
       <c r="Q14">
-        <v>8.397769697053333</v>
+        <v>12.30100297112</v>
       </c>
       <c r="R14">
-        <v>75.57992727348001</v>
+        <v>110.70902674008</v>
       </c>
       <c r="S14">
-        <v>0.0008238118406116583</v>
+        <v>0.0009549734482532256</v>
       </c>
       <c r="T14">
-        <v>0.0008238118406116583</v>
+        <v>0.0009549734482532257</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H15">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I15">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J15">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>93.234415</v>
       </c>
       <c r="O15">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="P15">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="Q15">
-        <v>23.31232276722055</v>
+        <v>25.72306431711666</v>
       </c>
       <c r="R15">
-        <v>209.810904904985</v>
+        <v>231.50757885405</v>
       </c>
       <c r="S15">
-        <v>0.002286912861463181</v>
+        <v>0.001996978903934025</v>
       </c>
       <c r="T15">
-        <v>0.002286912861463181</v>
+        <v>0.001996978903934025</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H16">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I16">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J16">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.822188333333335</v>
+        <v>18.10188466666667</v>
       </c>
       <c r="N16">
-        <v>26.466565</v>
+        <v>54.305654</v>
       </c>
       <c r="O16">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="P16">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="Q16">
-        <v>6.617696971870556</v>
+        <v>14.98274891975333</v>
       </c>
       <c r="R16">
-        <v>59.55927274683501</v>
+        <v>134.84474027778</v>
       </c>
       <c r="S16">
-        <v>0.000649188691721306</v>
+        <v>0.001163167542825688</v>
       </c>
       <c r="T16">
-        <v>0.0006491886917213059</v>
+        <v>0.001163167542825688</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H17">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I17">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J17">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>91.56894200000001</v>
+        <v>100.0833306666667</v>
       </c>
       <c r="N17">
-        <v>274.706826</v>
+        <v>300.249992</v>
       </c>
       <c r="O17">
-        <v>0.6418480872068144</v>
+        <v>0.609798675951868</v>
       </c>
       <c r="P17">
-        <v>0.6418480872068145</v>
+        <v>0.6097986759518681</v>
       </c>
       <c r="Q17">
-        <v>68.68766425005934</v>
+        <v>82.83797195949332</v>
       </c>
       <c r="R17">
-        <v>618.1889782505341</v>
+        <v>745.5417476354398</v>
       </c>
       <c r="S17">
-        <v>0.006738183250370889</v>
+        <v>0.006431025495578642</v>
       </c>
       <c r="T17">
-        <v>0.006738183250370889</v>
+        <v>0.006431025495578643</v>
       </c>
     </row>
   </sheetData>
